--- a/Learning_notes/testcase.xlsx
+++ b/Learning_notes/testcase.xlsx
@@ -1,126 +1,73 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8010" windowWidth="14805" xWindow="240" yWindow="105"/>
   </bookViews>
   <sheets>
-    <sheet name="test" sheetId="1" r:id="rId1"/>
+    <sheet name="test" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
-  <si>
-    <t>case_id</t>
-  </si>
-  <si>
-    <t>case_name</t>
-  </si>
-  <si>
-    <t>method</t>
-  </si>
-  <si>
-    <t>token</t>
-  </si>
-  <si>
-    <t>url</t>
-  </si>
-  <si>
-    <t>expect</t>
-  </si>
-  <si>
-    <t>actual</t>
-  </si>
-  <si>
-    <t>result</t>
-  </si>
-  <si>
-    <t>查询游泳圈</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>http://suggest.taobao.com/sug?code=utf-8&amp;q=游泳圈&amp;callback=cb</t>
-  </si>
-  <si>
-    <t>查询牙刷</t>
-  </si>
-  <si>
-    <t>http://suggest.taobao.com/sug?code=utf-8&amp;q=牙刷&amp;callback=cb</t>
-  </si>
-  <si>
-    <t>查询图书</t>
-  </si>
-  <si>
-    <t>http://suggest.taobao.com/sug?code=utf-8&amp;q=图书&amp;callback=cb</t>
-  </si>
-  <si>
-    <t>request_body</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="5">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
       <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <b val="1"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <color rgb="FF0000FF"/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.5999938962981048"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -159,43 +106,34 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle builtinId="8" name="超链接" xfId="1"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -485,118 +423,157 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
   <cols>
-    <col min="5" max="5" width="67.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.375" customWidth="1"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" width="67.875"/>
+    <col customWidth="1" max="6" min="6" width="15.375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>case_id</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>case_name</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>method</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>token</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>插入第一行第六列的值</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>插入第一行第七列的值</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>actual</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>result</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>查询游泳圈</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="D2" s="4" t="n"/>
+      <c r="E2" s="5" t="inlineStr">
+        <is>
+          <t>http://suggest.taobao.com/sug?code=utf-8&amp;q=游泳圈&amp;callback=cb</t>
+        </is>
+      </c>
+      <c r="F2" s="5" t="n"/>
+      <c r="G2" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="H2" s="4" t="n"/>
+      <c r="I2" s="4" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>查询牙刷</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="n"/>
+      <c r="E3" s="5" t="inlineStr">
+        <is>
+          <t>http://suggest.taobao.com/sug?code=utf-8&amp;q=牙刷&amp;callback=cb</t>
+        </is>
+      </c>
+      <c r="F3" s="5" t="n"/>
+      <c r="G3" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="H3" s="4" t="n"/>
+      <c r="I3" s="4" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="4">
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>查询图书</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="n"/>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>http://suggest.taobao.com/sug?code=utf-8&amp;q=图书&amp;callback=cb</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="n"/>
+      <c r="G4" s="4" t="n">
         <v>200</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="4">
-        <v>200</v>
-      </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="4">
-        <v>200</v>
-      </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
+      <c r="H4" s="4" t="n"/>
+      <c r="I4" s="4" t="n"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1"/>
     <hyperlink ref="E3" r:id="rId2"/>
     <hyperlink ref="E4" r:id="rId3"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>